--- a/biology/Botanique/Anne_Rosine_Noilly-Prat/Anne_Rosine_Noilly-Prat.xlsx
+++ b/biology/Botanique/Anne_Rosine_Noilly-Prat/Anne_Rosine_Noilly-Prat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Rosine Noilly Prat né à Lyon en 1825 morte à Marseille le 16 août 1902 était une femme d'affaires (fabrication de liqueurs) et une bienfaitrice. Elle était l'arrière-grand-mère de la comtesse Lily Pastré, mécène ayant protégé de nombreux artistes juifs sous l'Occupation.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Rosine Noilly-Prat est la fille de Madeleine Briget et d'un fabricant de liqueurs lyonnais, Louis Noilly, qui établit à Marseille en 1843, rue Paradis, un établissement de vente et de fabrication de ses produits ; il en confie la direction à Claudius Prat qui épousera Anne Rosine âgée seulement de dix neuf ans. Ils auront trois enfants :
 Louis Prat, né le 17 mai 1845
 Jean Prat, né le 30 mars 1847
 Marie Prat, née le 27 février 1849, grand-mère paternelle de Lily Pastré.
 Anne Rosine perd son mari en 1859 et son père en 1865. Elle devient le chef de l'entreprise Noilly Prat et le restera durant trente-sept ans jusqu'à sa mort.
-La femme d'affaires ne doit pas faire oublier la dame des bonnes œuvres. A Marseille, elle fonde l'asile des Dames du Calvaire (actuelle Clinique Saint-Elisabeth rue Chape) pour les femmes incurables, finance la construction  de l'église et du couvent des Dominicains, préside la Petite Œuvre pour les jeunes filles pauvres et offre à sa paroisse de l'église Saint-Joseph (rue Paradis), le maître-autel monumental de marbre et d'onyx commandé aux ateliers de Jules Cantini. Pendant l'épidémie de choléra qui ravage Marseille en 1884, elle se dépense sans compter et visite les malades à domicile ou dans les hôpitaux[1]. Enfin, elle distribue gratuitement 600 000 litres par an de vin de messe.
+La femme d'affaires ne doit pas faire oublier la dame des bonnes œuvres. A Marseille, elle fonde l'asile des Dames du Calvaire (actuelle Clinique Saint-Elisabeth rue Chape) pour les femmes incurables, finance la construction  de l'église et du couvent des Dominicains, préside la Petite Œuvre pour les jeunes filles pauvres et offre à sa paroisse de l'église Saint-Joseph (rue Paradis), le maître-autel monumental de marbre et d'onyx commandé aux ateliers de Jules Cantini. Pendant l'épidémie de choléra qui ravage Marseille en 1884, elle se dépense sans compter et visite les malades à domicile ou dans les hôpitaux. Enfin, elle distribue gratuitement 600 000 litres par an de vin de messe.
 Elle possède un important patrimoine immobilier rue Paradis à Marseille. Elle est aussi propriétaire d'une bastide à Montredon où se trouve actuellement l'école de la Marine Marchande ; c'est là qu'elle décède.
 </t>
         </is>
